--- a/medicine/Psychotrope/Waterloo_(bière)/Waterloo_(bière).xlsx
+++ b/medicine/Psychotrope/Waterloo_(bière)/Waterloo_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Waterloo_(bi%C3%A8re)</t>
+          <t>Waterloo_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Waterloo est une bière belge brassée par la microbrasserie Waterloo installée au sein de la ferme de Mont-Saint-Jean à Waterloo.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Waterloo_(bi%C3%A8re)</t>
+          <t>Waterloo_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine de la Waterloo remonte à 1456, elle est produite par la brasserie du Marché située à Braine-l'Alleud jusqu'en 1971, année de la fermeture de la brasserie.
-En 2005, la bière est relancée par un jeune entrepreneur, Adrien Desclée. En 2013, ce dernier s'associe avec le groupe John Martin. En 2014, le groupe John Martin achète la ferme de Mont-Saint-Jean à Waterloo en vue d'y installer une microbrasserie pour y produire la Waterloo jusque-là brassée par la brasserie du Bocq à Purnode[1]. À l'occasion deux nouvelles bières sont ajoutées à la gamme : Waterloo Cuvée Impériale et Waterloo Récolte
+En 2005, la bière est relancée par un jeune entrepreneur, Adrien Desclée. En 2013, ce dernier s'associe avec le groupe John Martin. En 2014, le groupe John Martin achète la ferme de Mont-Saint-Jean à Waterloo en vue d'y installer une microbrasserie pour y produire la Waterloo jusque-là brassée par la brasserie du Bocq à Purnode. À l'occasion deux nouvelles bières sont ajoutées à la gamme : Waterloo Cuvée Impériale et Waterloo Récolte
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Waterloo_(bi%C3%A8re)</t>
+          <t>Waterloo_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Waterloo Triple Blond (anciennement Triple 7 Blond) est une blonde triple avec une teneur en alcool de 8 %.
 Waterloo Stong Dark (anciennement Double 8 Dark) est une bière double brune avec une teneur en alcool de 8 %.
